--- a/EADExamples.xlsx
+++ b/EADExamples.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="38860" yWindow="2400" windowWidth="38060" windowHeight="21320" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="26300" windowHeight="23400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Example1" sheetId="2" r:id="rId1"/>
@@ -12,7 +12,7 @@
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="54">
   <si>
     <t>series</t>
   </si>
@@ -243,12 +243,36 @@
   <si>
     <t>c0x level</t>
   </si>
+  <si>
+    <t>num</t>
+  </si>
+  <si>
+    <t>titleproper</t>
+  </si>
+  <si>
+    <t>guide date</t>
+  </si>
+  <si>
+    <t>bioghist</t>
+  </si>
+  <si>
+    <t>acqinfo</t>
+  </si>
+  <si>
+    <t>5295-c</t>
+  </si>
+  <si>
+    <t>A Guide to the John Esten Cocke Collection</t>
+  </si>
+  <si>
+    <t>Purchased 1 February 1965</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -279,6 +303,10 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Verdana"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -297,209 +325,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="95">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="95">
+  <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -824,213 +672,259 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="67.83203125" customWidth="1"/>
+    <col min="3" max="3" width="20.5" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
     <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="10.83203125" style="3"/>
     <col min="7" max="7" width="16.83203125" customWidth="1"/>
     <col min="8" max="8" width="56.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15">
+      <c r="A1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" t="s">
+      <c r="H1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s">
+      <c r="I1" t="s">
         <v>40</v>
       </c>
-      <c r="D1" t="s">
+      <c r="J1" t="s">
         <v>41</v>
       </c>
-      <c r="E1" t="s">
+      <c r="K1" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="M1" t="s">
         <v>43</v>
       </c>
-      <c r="H1" t="s">
+      <c r="N1" t="s">
         <v>1</v>
       </c>
-      <c r="I1" t="s">
+      <c r="O1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2">
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="1">
+        <v>23874</v>
+      </c>
+      <c r="F2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="F3"/>
+      <c r="G3">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="H3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="I3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3">
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="F4"/>
+      <c r="G4">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="H4" t="s">
         <v>44</v>
       </c>
-      <c r="C3" t="s">
+      <c r="I4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="J4" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
+      <c r="K4" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="L4" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4">
+    <row r="5" spans="1:15">
+      <c r="F5"/>
+      <c r="G5">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="H5" t="s">
         <v>44</v>
       </c>
-      <c r="C4" t="s">
+      <c r="I5" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
+      <c r="J5" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
+      <c r="K5" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="L5" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5">
+    <row r="6" spans="1:15">
+      <c r="F6"/>
+      <c r="G6">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="H6" t="s">
         <v>44</v>
       </c>
-      <c r="C5" t="s">
+      <c r="I6" t="s">
         <v>21</v>
       </c>
-      <c r="D5" t="s">
+      <c r="J6" t="s">
         <v>14</v>
       </c>
-      <c r="E5" t="s">
+      <c r="K6" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="L6" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6">
+    <row r="7" spans="1:15">
+      <c r="F7"/>
+      <c r="G7">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
+      <c r="H7" t="s">
         <v>44</v>
       </c>
-      <c r="C6" t="s">
+      <c r="I7" t="s">
         <v>17</v>
       </c>
-      <c r="D6" t="s">
+      <c r="J7" t="s">
         <v>14</v>
       </c>
-      <c r="I6" t="s">
+      <c r="L7" s="3"/>
+      <c r="O7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7">
+    <row r="8" spans="1:15">
+      <c r="F8"/>
+      <c r="G8">
         <v>2</v>
       </c>
-      <c r="B7" t="s">
+      <c r="H8" t="s">
         <v>44</v>
       </c>
-      <c r="C7" t="s">
+      <c r="I8" t="s">
         <v>19</v>
       </c>
-      <c r="D7" t="s">
+      <c r="J8" t="s">
         <v>14</v>
       </c>
-      <c r="I7" t="s">
+      <c r="L8" s="3"/>
+      <c r="O8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8">
+    <row r="9" spans="1:15">
+      <c r="F9"/>
+      <c r="G9">
         <v>1</v>
       </c>
-      <c r="B8" t="s">
+      <c r="H9" t="s">
         <v>0</v>
       </c>
-      <c r="C8" t="s">
+      <c r="I9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="F10"/>
+      <c r="G10">
         <v>2</v>
       </c>
-      <c r="B9" t="s">
+      <c r="H10" t="s">
         <v>44</v>
       </c>
-      <c r="C9" t="s">
+      <c r="I10" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="J10" t="s">
         <v>24</v>
       </c>
-      <c r="E9" t="s">
+      <c r="K10" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="L10" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
-      <c r="A10">
+    <row r="11" spans="1:15">
+      <c r="F11"/>
+      <c r="G11">
         <v>2</v>
       </c>
-      <c r="B10" t="s">
+      <c r="H11" t="s">
         <v>44</v>
       </c>
-      <c r="C10" t="s">
+      <c r="I11" t="s">
         <v>26</v>
       </c>
-      <c r="D10" t="s">
+      <c r="J11" t="s">
         <v>27</v>
       </c>
-      <c r="E10" t="s">
+      <c r="K11" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="L11" s="3" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -1038,21 +932,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="39.6640625" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" customWidth="1"/>
-    <col min="6" max="6" width="8.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="27.83203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="56.83203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="27.83203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="56.83203125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1071,13 +965,13 @@
       <c r="E1" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="I1" t="s">
@@ -1122,13 +1016,13 @@
       <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1148,21 +1042,21 @@
       <c r="E5" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="4" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
